--- a/calculos.xlsx
+++ b/calculos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegro\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegro\OneDrive\Documentos\GitHub\RNA-403\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D837301-0DB5-49E3-8187-69D82F8E69CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1A3BC0-F3AF-424F-90FC-14AE9DA2AFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF2DF557-3625-4643-966E-2521E31F38E6}"/>
   </bookViews>
@@ -36,25 +36,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
-    <t>1001</t>
+    <t>=1*0  +   1*1   +   0*-1   +   1*-1</t>
   </si>
   <si>
-    <t>1101</t>
+    <t>=1*1  +   1*0   +   0*-1   +   1*-1</t>
   </si>
   <si>
-    <t>1100</t>
+    <t>=1*-1  +   1*-1   +   0*0   +   1*1</t>
   </si>
   <si>
-    <t>=1*0  +   1*1   +   0*-1   +   1*-1</t>
+    <t>=1*-1  +   1*-1   +   0*1   +   1*0</t>
+  </si>
+  <si>
+    <t>=0.5+0.5+0+0</t>
+  </si>
+  <si>
+    <t>-0.5</t>
+  </si>
+  <si>
+    <t>=-0.5*1+-0.5*1+0+0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +75,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,10 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF86732-952C-4E17-9AE6-A7880596C1D3}">
-  <dimension ref="L1:R4"/>
+  <dimension ref="L1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="M6" sqref="M6:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +458,7 @@
     <col min="18" max="21" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L1">
         <v>1101</v>
       </c>
@@ -459,14 +475,20 @@
         <v>-1</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R1" s="1">
         <f>0+1+0+(-1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="S1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>1101</v>
+      </c>
       <c r="M2">
         <v>1</v>
       </c>
@@ -480,13 +502,20 @@
         <v>-1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="12:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <f>1+0+-1</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>1101</v>
+      </c>
       <c r="M3">
         <v>-1</v>
       </c>
@@ -500,13 +529,20 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="12:18" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1">
+        <f>-1+-1+1</f>
+        <v>-1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>1101</v>
+      </c>
       <c r="M4">
         <v>-1</v>
       </c>
@@ -522,11 +558,120 @@
       <c r="Q4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>2</v>
+      <c r="R4" s="1">
+        <f>-1-1</f>
+        <v>-2</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>1100</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>1100</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>1100</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>-1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>1100</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>